--- a/biology/Biologie cellulaire et moléculaire/Volume_plaquettaire_moyen/Volume_plaquettaire_moyen.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Volume_plaquettaire_moyen/Volume_plaquettaire_moyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le volume plaquettaire moyen (VPM) est une mesure calculée par une machine, qui évalue la taille moyenne des plaquettes présentes dans le sang. Il est le plus souvent inclus dans les tests sanguins dans le cadre du CBC. La taille moyenne des plaquettes est plus grande lorsque le corps produit de plus en plus de plaquettes, les résultats du test VPM sont utilisés pour tirer des conclusions sur la production de plaquettes en cas de problèmes de destruction de la moelle osseuse ou de plaquettes[1]. 
-Le VPM est plus important (supérieur à 10,9) s'il y a destruction des plaquettes. Cela peut être observé dans les maladies inflammatoires de l'intestin, le purpura thrombopénique immunologique (PTI), les maladies myéloprolifératives et le syndrome de Bernard-Soulier [2]. Il peut aussi être lié à la pré-éclampsie et au rétablissement d'une hypoplasie transitoire[3]. 
-Des valeurs de volume plaquettaire moyen, anormalement basses (inférieures à 7.5) sont en corrélation avec une thrombocytopénie un VPM bas peut être corrélé à une taille de plaquette trop petite, parfois le symptôme d'un spectre appelé syndrome de Wiskott-Aldrich (WAS) [4] causé par une mutation génétique du gène WAS. 
-Un échantillon pour le test VPM s'obstient dans un tube EDTA Lavender-Top. Une gamme typique de volumes de plaquettes est comprise entre 9,4 et 12,3. fL[5] (femtolitre), équivalent aux sphères 2,65 à 2,9 µm de diamètre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le volume plaquettaire moyen (VPM) est une mesure calculée par une machine, qui évalue la taille moyenne des plaquettes présentes dans le sang. Il est le plus souvent inclus dans les tests sanguins dans le cadre du CBC. La taille moyenne des plaquettes est plus grande lorsque le corps produit de plus en plus de plaquettes, les résultats du test VPM sont utilisés pour tirer des conclusions sur la production de plaquettes en cas de problèmes de destruction de la moelle osseuse ou de plaquettes. 
+Le VPM est plus important (supérieur à 10,9) s'il y a destruction des plaquettes. Cela peut être observé dans les maladies inflammatoires de l'intestin, le purpura thrombopénique immunologique (PTI), les maladies myéloprolifératives et le syndrome de Bernard-Soulier . Il peut aussi être lié à la pré-éclampsie et au rétablissement d'une hypoplasie transitoire. 
+Des valeurs de volume plaquettaire moyen, anormalement basses (inférieures à 7.5) sont en corrélation avec une thrombocytopénie un VPM bas peut être corrélé à une taille de plaquette trop petite, parfois le symptôme d'un spectre appelé syndrome de Wiskott-Aldrich (WAS)  causé par une mutation génétique du gène WAS. 
+Un échantillon pour le test VPM s'obstient dans un tube EDTA Lavender-Top. Une gamme typique de volumes de plaquettes est comprise entre 9,4 et 12,3. fL (femtolitre), équivalent aux sphères 2,65 à 2,9 µm de diamètre.
 </t>
         </is>
       </c>
@@ -514,20 +526,91 @@
           <t>Conditions associées à une modification du MPV</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-VPM diminué
-Chimiothérapie cytotoxique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volume_plaquettaire_moyen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Volume_plaquettaire_moyen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Conditions associées à une modification du MPV</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VPM diminué</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chimiothérapie cytotoxique
 L'hypersplénisme
 Thrombocytose réactive
 Déficience en fer
 L'hypothyroïdie
 Syndrome d'immunodéficience acquise ( SIDA )
 Syndrome de Wiskott-Aldrich
-Thrombopénie liée à l'X
-Augmentation du VPM
-Thrombopénie Immunitaire
+Thrombopénie liée à l'X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Volume_plaquettaire_moyen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Volume_plaquettaire_moyen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conditions associées à une modification du MPV</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Augmentation du VPM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thrombopénie Immunitaire
 Coagulation intravasculaire disséminée
 Troubles myéloprolifératifs
 Administration d'érythropoïétine / thrombopoïétine
@@ -538,13 +621,13 @@
 Plaquettaire type vWD
 Syndrome de Paris-Trousseau
 Macrothrombocytopénie Méditerranéenne
-Syndrome de Bernard-Soulier [6]
+Syndrome de Bernard-Soulier 
 Troubles liés à MYH9
 Syndrome de délétion 21q11
 Leucémie myéloïde aiguë et chronique
 Post- Splénectomie
 Vasculite
-Anémie mégaloblastique [7]
+Anémie mégaloblastique 
 Diabète sucré
 Pré-éclampsie
 L'insuffisance rénale chronique
@@ -557,31 +640,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Volume_plaquettaire_moyen</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Volume_plaquettaire_moyen</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Thrombocytopénie héréditaire avec MPV normal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Syndrome d'ATRUS
 Thrombocytopénie 2 (THC2)
